--- a/FirstYear/COMP1047/Assignments/Assignment3-SaidjonNozimboev.xlsx
+++ b/FirstYear/COMP1047/Assignments/Assignment3-SaidjonNozimboev.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScienceBachelorsDegree\FirstYear\COMP1047\Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScienceBachelorsDegree\FirstYear\COMP1047\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B57059-37FC-435E-AECA-A1742675D318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E00F80-B9B7-45DD-B03B-CD36A84FA58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{228F812F-8FD9-4D60-A48F-87D75AB4D65D}"/>
   </bookViews>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F27B4-2501-4E19-83AB-62A51DBF3F0C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,7 +972,7 @@
         <v>105</v>
       </c>
       <c r="D18" s="18">
-        <f t="shared" ref="D18:D21" si="1">B18*C18</f>
+        <f t="shared" ref="D18:D20" si="1">B18*C18</f>
         <v>105</v>
       </c>
     </row>

--- a/FirstYear/COMP1047/Assignments/Assignment3-SaidjonNozimboev.xlsx
+++ b/FirstYear/COMP1047/Assignments/Assignment3-SaidjonNozimboev.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScienceBachelorsDegree\FirstYear\COMP1047\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E00F80-B9B7-45DD-B03B-CD36A84FA58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D137F1-4998-4931-8BC3-6A466D9CCFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{228F812F-8FD9-4D60-A48F-87D75AB4D65D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1-Landscape Project Estima" sheetId="1" r:id="rId1"/>
+    <sheet name=" Landscape Estimation" sheetId="1" r:id="rId1"/>
+    <sheet name="ACE Classic Car Company" sheetId="2" r:id="rId2"/>
+    <sheet name="Windsurf Bar" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
   <si>
     <t xml:space="preserve">       Landscape Project Estimate</t>
   </si>
@@ -126,18 +128,189 @@
   </si>
   <si>
     <t>Cost of Most Expenseive Material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          ACE Classic Car Company Earnings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              Saidjon Nozimboev, 110186060</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Commission</t>
+  </si>
+  <si>
+    <t>Earnings</t>
+  </si>
+  <si>
+    <t>Above Average Earnings</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Lowest:</t>
+  </si>
+  <si>
+    <t>Highest:</t>
+  </si>
+  <si>
+    <t>Average:</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>Palov</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Kerry</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Usman</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Sian</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Elon</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Vlad</t>
+  </si>
+  <si>
+    <t>Tszin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      WINDSURF BAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                         Payroll by Saidjon Nozimboev, 110186060</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular 
+Hours </t>
+  </si>
+  <si>
+    <t>Overtime
+Hours</t>
+  </si>
+  <si>
+    <t>Pay</t>
+  </si>
+  <si>
+    <t>A. Arms</t>
+  </si>
+  <si>
+    <t>B. Boyd</t>
+  </si>
+  <si>
+    <t>C. Carmen</t>
+  </si>
+  <si>
+    <t>D. Donald</t>
+  </si>
+  <si>
+    <t>E. Ericson</t>
+  </si>
+  <si>
+    <t>F. Falcone</t>
+  </si>
+  <si>
+    <t>G. Gomes</t>
+  </si>
+  <si>
+    <t>H. Homes</t>
+  </si>
+  <si>
+    <t>J. Jones</t>
+  </si>
+  <si>
+    <t>K. Katt</t>
+  </si>
+  <si>
+    <t>L. Lemon</t>
+  </si>
+  <si>
+    <t>N. Nichols</t>
+  </si>
+  <si>
+    <t>O. Ostram</t>
+  </si>
+  <si>
+    <t>I. Iotona</t>
+  </si>
+  <si>
+    <t>M. Mariana</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Wait staff</t>
+  </si>
+  <si>
+    <t>Busboy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                               Wage Chart                                                                        </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +371,24 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,8 +401,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0" tint="-5.0965910824915313E-2"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFFCC00"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -311,12 +534,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -363,6 +754,61 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -370,6 +816,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFCC00"/>
+      <color rgb="FFFFCC66"/>
+      <color rgb="FFFFC967"/>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -379,6 +834,2488 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>MATERIALS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AB78-4538-B8A9-D657307BDEB8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AB78-4538-B8A9-D657307BDEB8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-AB78-4538-B8A9-D657307BDEB8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-AB78-4538-B8A9-D657307BDEB8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>' Landscape Estimation'!$A$17:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Weed Treatment</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Aerator Rental</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ornamental Shrubs</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perennial Plants</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>' Landscape Estimation'!$B$17:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4843-472B-AF7C-9AEC512F2656}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>ACE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Classic Car Company Earnings</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'ACE Classic Car Company'!$A$5:$B$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Palov</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Kerry</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Usman</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Sian</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Don</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Mask</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Tszin</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Anton</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Sam</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Ali</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Li</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Ben</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Elon</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Vlad</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACE Classic Car Company'!$F$5:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>93008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-87D1-4534-8440-A7B61CA915D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="387079631"/>
+        <c:axId val="235311103"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ru-RU"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ACE Classic Car Company'!$A$5:$B$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="7"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Palov</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Kerry</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Usman</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Sian</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Don</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Mask</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Tszin</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Anton</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Sam</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Ali</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Li</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Ben</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Elon</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Vlad</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ACE Classic Car Company'!$C$5:$C$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>"$"#,##0</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>85000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>75000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>55000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>65000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>39000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>59500</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>69000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-87D1-4534-8440-A7B61CA915D2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ru-RU"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ACE Classic Car Company'!$A$5:$B$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="7"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Palov</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Kerry</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Usman</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Sian</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Don</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Mask</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Tszin</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Anton</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Sam</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Ali</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Li</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Ben</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Elon</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Vlad</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ACE Classic Car Company'!$D$5:$D$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>"$"#,##0</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>400400</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>240000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>250000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>330800</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>345000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>274500</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>400000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-87D1-4534-8440-A7B61CA915D2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ru-RU"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ACE Classic Car Company'!$A$5:$B$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="7"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Palov</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Kerry</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Usman</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Sian</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Don</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Mask</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Tszin</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Anton</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Sam</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Ali</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Li</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Ben</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Elon</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Vlad</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ACE Classic Car Company'!$E$5:$E$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>"$"#,##0</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>8008</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4800</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6616</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6900</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5490</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-87D1-4534-8440-A7B61CA915D2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="387079631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="235311103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="235311103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387079631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,6 +3362,244 @@
         <a:xfrm>
           <a:off x="3680461" y="807720"/>
           <a:ext cx="1643229" cy="899160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B1B17A-8DDC-763B-DB04-5E94946DC9B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526C147F-694B-6E50-B2CC-9CCDBB7D8B64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="83820"/>
+          <a:ext cx="6690360" cy="693420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>159026</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>46382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1762538</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>112642</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C8D382-A2D6-4658-174C-0A8884A155EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>147735</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>93305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>879318</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57281</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4778E97B-C0C8-09B9-1517-584A143BFC52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="147735" y="93305"/>
+          <a:ext cx="731583" cy="624894"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>365322</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>84001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1104526</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CFD5B3-B514-54D7-6044-40E9469F2FA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5637118" y="84001"/>
+          <a:ext cx="739204" cy="624894"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -755,8 +3930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F27B4-2501-4E19-83AB-62A51DBF3F0C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,6 +4217,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="9"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="21">
         <f>SUM(D14+D21)</f>
         <v>2730.62</v>
@@ -1052,6 +4228,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="15">
         <f>MIN(D9:D13)</f>
         <v>50</v>
@@ -1094,4 +4271,946 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05D0ADB-FC3F-44BD-8EF2-BA0F0D6AED9D}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="27">
+        <v>85000</v>
+      </c>
+      <c r="D5" s="27">
+        <v>400400</v>
+      </c>
+      <c r="E5" s="39">
+        <f>0.02*D5</f>
+        <v>8008</v>
+      </c>
+      <c r="F5" s="39">
+        <f>C5+E5</f>
+        <v>93008</v>
+      </c>
+      <c r="G5" s="41" t="str">
+        <f>IF(F5&gt;F14,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="27">
+        <v>75000</v>
+      </c>
+      <c r="D6" s="27">
+        <v>240000</v>
+      </c>
+      <c r="E6" s="39">
+        <f t="shared" ref="E6:E10" si="0">0.02*D6</f>
+        <v>4800</v>
+      </c>
+      <c r="F6" s="39">
+        <f t="shared" ref="F6:F11" si="1">C6+E6</f>
+        <v>79800</v>
+      </c>
+      <c r="G6" s="41" t="str">
+        <f>IF(F6&gt;F14,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="27">
+        <v>55000</v>
+      </c>
+      <c r="D7" s="27">
+        <v>250000</v>
+      </c>
+      <c r="E7" s="39">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="F7" s="39">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="G7" s="41" t="str">
+        <f>IF(F7&gt;F14,"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="27">
+        <v>65000</v>
+      </c>
+      <c r="D8" s="27">
+        <v>330800</v>
+      </c>
+      <c r="E8" s="39">
+        <f t="shared" si="0"/>
+        <v>6616</v>
+      </c>
+      <c r="F8" s="39">
+        <f t="shared" si="1"/>
+        <v>71616</v>
+      </c>
+      <c r="G8" s="41" t="str">
+        <f>IF(F8&gt;F14,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="27">
+        <v>39000</v>
+      </c>
+      <c r="D9" s="27">
+        <v>345000</v>
+      </c>
+      <c r="E9" s="39">
+        <f t="shared" si="0"/>
+        <v>6900</v>
+      </c>
+      <c r="F9" s="39">
+        <f t="shared" si="1"/>
+        <v>45900</v>
+      </c>
+      <c r="G9" s="41" t="str">
+        <f>IF(F9&gt;F14,"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="27">
+        <v>59500</v>
+      </c>
+      <c r="D10" s="27">
+        <v>274500</v>
+      </c>
+      <c r="E10" s="39">
+        <f t="shared" si="0"/>
+        <v>5490</v>
+      </c>
+      <c r="F10" s="39">
+        <f t="shared" si="1"/>
+        <v>64990</v>
+      </c>
+      <c r="G10" s="41" t="str">
+        <f>IF(F10&gt;F14,"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="27">
+        <v>69000</v>
+      </c>
+      <c r="D11" s="27">
+        <v>400000</v>
+      </c>
+      <c r="E11" s="39">
+        <f>0.02*D11</f>
+        <v>8000</v>
+      </c>
+      <c r="F11" s="39">
+        <f t="shared" si="1"/>
+        <v>77000</v>
+      </c>
+      <c r="G11" s="41" t="str">
+        <f>IF(F11&gt;F14,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
+      <c r="B12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="39">
+        <f>MIN(C5:C11)</f>
+        <v>39000</v>
+      </c>
+      <c r="D12" s="39">
+        <f>MIN(D5:D11)</f>
+        <v>240000</v>
+      </c>
+      <c r="E12" s="39">
+        <f>MIN(E5:E11)</f>
+        <v>4800</v>
+      </c>
+      <c r="F12" s="39">
+        <f>MIN(F5:F11)</f>
+        <v>45900</v>
+      </c>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
+      <c r="B13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="39">
+        <f>MAX(C5:C11)</f>
+        <v>85000</v>
+      </c>
+      <c r="D13" s="39">
+        <f>MAX(D5:D11)</f>
+        <v>400400</v>
+      </c>
+      <c r="E13" s="39">
+        <f>MAX(E5:E11)</f>
+        <v>8008</v>
+      </c>
+      <c r="F13" s="39">
+        <f>MAX(F5:F11)</f>
+        <v>93008</v>
+      </c>
+      <c r="G13" s="32"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="39">
+        <f>AVERAGE(C5:C11)</f>
+        <v>63928.571428571428</v>
+      </c>
+      <c r="D14" s="39">
+        <f>AVERAGE(D5:D11)</f>
+        <v>320100</v>
+      </c>
+      <c r="E14" s="39">
+        <f>AVERAGE(E5:E11)</f>
+        <v>6402</v>
+      </c>
+      <c r="F14" s="39">
+        <f>AVERAGE(F5:F11)</f>
+        <v>70330.571428571435</v>
+      </c>
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="40">
+        <f>SUM(C5:C11)</f>
+        <v>447500</v>
+      </c>
+      <c r="D15" s="40">
+        <f>SUM(D5:D11)</f>
+        <v>2240700</v>
+      </c>
+      <c r="E15" s="40">
+        <f>SUM(E5:E11)</f>
+        <v>44814</v>
+      </c>
+      <c r="F15" s="40">
+        <f>SUM(F5:F11)</f>
+        <v>492314</v>
+      </c>
+      <c r="G15" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G6" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A59426-B014-41D2-AC42-0603BF5D9FAB}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="52.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="47"/>
+    </row>
+    <row r="3" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="13">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="58">
+        <f>E4*D21</f>
+        <v>1421</v>
+      </c>
+      <c r="E4" s="9">
+        <v>49</v>
+      </c>
+      <c r="F4" s="46">
+        <v>40</v>
+      </c>
+      <c r="G4" s="46">
+        <f>IF(E4&gt;F4,E4-F4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="H4" s="58">
+        <f>IF(G4&gt;0, D4+((D21*G4)*1.5),D4)</f>
+        <v>1812.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="13">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="58">
+        <f>E5*D21</f>
+        <v>1508</v>
+      </c>
+      <c r="E5" s="9">
+        <v>52</v>
+      </c>
+      <c r="F5" s="46">
+        <v>40</v>
+      </c>
+      <c r="G5" s="46">
+        <f t="shared" ref="G5:G18" si="0">IF(E5&gt;F5,E5-F5,0)</f>
+        <v>12</v>
+      </c>
+      <c r="H5" s="58">
+        <f>IF(G5&gt;0, D5+((D21*G5)*1.5),D5)</f>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="13">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="58">
+        <f>E6*D22</f>
+        <v>579.25</v>
+      </c>
+      <c r="E6" s="9">
+        <v>35</v>
+      </c>
+      <c r="F6" s="46">
+        <v>40</v>
+      </c>
+      <c r="G6" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="58">
+        <f>IF(G6&gt;0,D6+((G6*D22)*1.5),D6)</f>
+        <v>579.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="13">
+        <v>22</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="58">
+        <f>E7*D22</f>
+        <v>794.40000000000009</v>
+      </c>
+      <c r="E7" s="9">
+        <v>48</v>
+      </c>
+      <c r="F7" s="46">
+        <v>40</v>
+      </c>
+      <c r="G7" s="46">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H7" s="58">
+        <f>IF(G7&gt;0,D7+((G7*D22)*1.5),D7)</f>
+        <v>993.00000000000011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="13">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="58">
+        <f>E8*D22</f>
+        <v>331</v>
+      </c>
+      <c r="E8" s="9">
+        <v>20</v>
+      </c>
+      <c r="F8" s="46">
+        <v>40</v>
+      </c>
+      <c r="G8" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="58">
+        <f>IF(G8&gt;0,D8+((G8*D22)*1.5),D8)</f>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="13">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="58">
+        <f>E9*D22</f>
+        <v>496.5</v>
+      </c>
+      <c r="E9" s="9">
+        <v>30</v>
+      </c>
+      <c r="F9" s="46">
+        <v>40</v>
+      </c>
+      <c r="G9" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="58">
+        <f>IF(G9&gt;0,D9+((G9*D22)*1.5),D9)</f>
+        <v>496.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="13">
+        <v>24</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="58">
+        <f>E10*D22</f>
+        <v>579.25</v>
+      </c>
+      <c r="E10" s="9">
+        <v>35</v>
+      </c>
+      <c r="F10" s="46">
+        <v>40</v>
+      </c>
+      <c r="G10" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="58">
+        <f>IF(G10&gt;0,D10+((G10*D22)*1.5),D10)</f>
+        <v>579.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="13">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="58">
+        <f>E11*D22</f>
+        <v>695.1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>42</v>
+      </c>
+      <c r="F11" s="46">
+        <v>40</v>
+      </c>
+      <c r="G11" s="46">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H11" s="58">
+        <f>IF(G11&gt;0,D11+((G11*D22)*1.5),D11)</f>
+        <v>744.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="13">
+        <v>21</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="58">
+        <f>E12*D22</f>
+        <v>728.2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>44</v>
+      </c>
+      <c r="F12" s="46">
+        <v>40</v>
+      </c>
+      <c r="G12" s="46">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H12" s="58">
+        <f>IF(G12&gt;0,D12+((G12*D22)*1.5),D12)</f>
+        <v>827.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="13">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="58">
+        <f>E13*D22</f>
+        <v>695.1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>42</v>
+      </c>
+      <c r="F13" s="46">
+        <v>40</v>
+      </c>
+      <c r="G13" s="46">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="58">
+        <f>IF(G13&gt;0,D13+((G13*D22)*1.5),D13)</f>
+        <v>744.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="13">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="58">
+        <f>E14*D22</f>
+        <v>612.35</v>
+      </c>
+      <c r="E14" s="9">
+        <v>37</v>
+      </c>
+      <c r="F14" s="46">
+        <v>40</v>
+      </c>
+      <c r="G14" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="58">
+        <f>IF(G14&gt;0,D14+((G14*D22)*1.5),D14)</f>
+        <v>612.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="13">
+        <v>17</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="58">
+        <f>E15*D23</f>
+        <v>546</v>
+      </c>
+      <c r="E15" s="9">
+        <v>35</v>
+      </c>
+      <c r="F15" s="46">
+        <v>40</v>
+      </c>
+      <c r="G15" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="58">
+        <f>IF(G15&gt;0,D15+G15*D23*1.5,D15)</f>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="13">
+        <v>17</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="58">
+        <f>E16*D23</f>
+        <v>390</v>
+      </c>
+      <c r="E16" s="9">
+        <v>25</v>
+      </c>
+      <c r="F16" s="46">
+        <v>40</v>
+      </c>
+      <c r="G16" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="58">
+        <f>IF(G16&gt;0,D16+G16*D23*1.5,D16)</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="13">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="58">
+        <f>E17*D23</f>
+        <v>530.4</v>
+      </c>
+      <c r="E17" s="9">
+        <v>34</v>
+      </c>
+      <c r="F17" s="46">
+        <v>40</v>
+      </c>
+      <c r="G17" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="58">
+        <f>IF(G17&gt;0,D17+G17*D23*1.5,D17)</f>
+        <v>530.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="13">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="58">
+        <f>E18*D23</f>
+        <v>343.2</v>
+      </c>
+      <c r="E18" s="9">
+        <v>22</v>
+      </c>
+      <c r="F18" s="46">
+        <v>40</v>
+      </c>
+      <c r="G18" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="58">
+        <f>IF(G18&gt;0,D18+G18*D23*1.5,D18)</f>
+        <v>343.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="58">
+        <f>SUM(H4:H18)</f>
+        <v>11560.45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="47"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="57">
+        <v>29</v>
+      </c>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="19">
+        <v>16.55</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="19">
+        <v>15.6</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H10" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/FirstYear/COMP1047/Assignments/Assignment3-SaidjonNozimboev.xlsx
+++ b/FirstYear/COMP1047/Assignments/Assignment3-SaidjonNozimboev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScienceBachelorsDegree\FirstYear\COMP1047\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D137F1-4998-4931-8BC3-6A466D9CCFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E6F18C-70E1-41CC-BC76-9F7222C192CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{228F812F-8FD9-4D60-A48F-87D75AB4D65D}"/>
   </bookViews>
@@ -40,12 +40,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
   <si>
-    <t xml:space="preserve">       Landscape Project Estimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      Yard Masters</t>
-  </si>
-  <si>
     <t>Prepared for:</t>
   </si>
   <si>
@@ -130,12 +124,6 @@
     <t>Cost of Most Expenseive Material</t>
   </si>
   <si>
-    <t xml:space="preserve">                          ACE Classic Car Company Earnings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                              Saidjon Nozimboev, 110186060</t>
-  </si>
-  <si>
     <t>Last</t>
   </si>
   <si>
@@ -209,12 +197,6 @@
   </si>
   <si>
     <t>Tszin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      WINDSURF BAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                         Payroll by Saidjon Nozimboev, 110186060</t>
   </si>
   <si>
     <t>Employee</t>
@@ -297,7 +279,25 @@
     <t>Busboy</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                               Wage Chart                                                                        </t>
+    <t>Payroll by Saidjon Nozimboev, 110186060</t>
+  </si>
+  <si>
+    <t>WINDSURF BAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACE Classic Car Company Earnings </t>
+  </si>
+  <si>
+    <t>Saidjon Nozimboev, 110186060</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Landscape Project Estimate</t>
+  </si>
+  <si>
+    <t>Yard Masters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wage Chart </t>
   </si>
 </sst>
 </file>
@@ -310,7 +310,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,21 +324,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="25"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -385,6 +370,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -436,7 +428,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -655,32 +647,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -695,11 +661,55 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -707,108 +717,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="35"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="35"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="35"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -843,10 +856,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="105"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="5"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -857,7 +870,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -870,11 +883,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1">
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>MATERIALS</a:t>
             </a:r>
           </a:p>
@@ -893,7 +902,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -961,18 +970,27 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3">
+                  <a:shade val="58000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
             <c:extLst>
@@ -986,18 +1004,27 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3">
+                  <a:shade val="86000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
             <c:extLst>
@@ -1011,18 +1038,27 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent3">
+                  <a:tint val="86000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
             <c:extLst>
@@ -1036,18 +1072,27 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3">
+                  <a:tint val="58000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
             <c:extLst>
@@ -1057,6 +1102,178 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:shade val="58000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-AB78-4538-B8A9-D657307BDEB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:shade val="86000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-AB78-4538-B8A9-D657307BDEB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:tint val="86000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-AB78-4538-B8A9-D657307BDEB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:tint val="58000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-AB78-4538-B8A9-D657307BDEB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1064,29 +1281,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="1"/>
@@ -1160,7 +1355,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="1"/>
@@ -1178,37 +1373,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1260,10 +1424,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1351,17 +1515,12 @@
           <c:order val="3"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
+              <a:schemeClr val="accent1">
+                <a:shade val="58000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1431,6 +1590,29 @@
                 <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>Anton</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Sam</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Ali</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Li</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Ben</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Elon</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Vlad</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
                     <c:v>Palov</c:v>
                   </c:pt>
                   <c:pt idx="1">
@@ -1450,29 +1632,6 @@
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Tszin</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Anton</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Sam</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Ali</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Li</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Ben</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Elon</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Vlad</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1535,7 +1694,9 @@
                 <c:order val="0"/>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:schemeClr val="accent1">
+                      <a:tint val="58000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -1614,6 +1775,29 @@
                       <c:ptCount val="7"/>
                       <c:lvl>
                         <c:pt idx="0">
+                          <c:v>Anton</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Sam</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Ali</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Li</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Ben</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Elon</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Vlad</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
                           <c:v>Palov</c:v>
                         </c:pt>
                         <c:pt idx="1">
@@ -1633,29 +1817,6 @@
                         </c:pt>
                         <c:pt idx="6">
                           <c:v>Tszin</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>Anton</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>Sam</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>Ali</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>Li</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>Ben</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>Elon</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>Vlad</c:v>
                         </c:pt>
                       </c:lvl>
                     </c:multiLvlStrCache>
@@ -1710,7 +1871,9 @@
                 <c:order val="1"/>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent2"/>
+                    <a:schemeClr val="accent1">
+                      <a:tint val="86000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -1789,6 +1952,29 @@
                       <c:ptCount val="7"/>
                       <c:lvl>
                         <c:pt idx="0">
+                          <c:v>Anton</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Sam</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Ali</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Li</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Ben</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Elon</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Vlad</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
                           <c:v>Palov</c:v>
                         </c:pt>
                         <c:pt idx="1">
@@ -1808,29 +1994,6 @@
                         </c:pt>
                         <c:pt idx="6">
                           <c:v>Tszin</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>Anton</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>Sam</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>Ali</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>Li</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>Ben</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>Elon</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>Vlad</c:v>
                         </c:pt>
                       </c:lvl>
                     </c:multiLvlStrCache>
@@ -1885,7 +2048,9 @@
                 <c:order val="2"/>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent3"/>
+                    <a:schemeClr val="accent1">
+                      <a:shade val="86000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -1964,6 +2129,29 @@
                       <c:ptCount val="7"/>
                       <c:lvl>
                         <c:pt idx="0">
+                          <c:v>Anton</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Sam</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Ali</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Li</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Ben</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Elon</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Vlad</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
                           <c:v>Palov</c:v>
                         </c:pt>
                         <c:pt idx="1">
@@ -1983,29 +2171,6 @@
                         </c:pt>
                         <c:pt idx="6">
                           <c:v>Tszin</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>Anton</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>Sam</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>Ali</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>Li</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>Ben</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>Elon</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>Vlad</c:v>
                         </c:pt>
                       </c:lvl>
                     </c:multiLvlStrCache>
@@ -2211,93 +2376,25 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2308,7 +2405,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2320,17 +2417,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -2354,29 +2440,25 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <cs:styleClr val="auto"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2384,50 +2466,65 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -2437,7 +2534,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -2449,25 +2546,26 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -2475,7 +2573,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2680,7 +2778,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2688,7 +2786,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2732,7 +2830,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2748,7 +2846,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3931,7 +4029,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3943,331 +4041,323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="3">
+        <v>110186060</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12">
-        <v>110186060</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="13">
+      <c r="B9" s="4">
         <v>18</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="5">
         <v>75</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="6">
         <f>B9*C9</f>
         <v>1350</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="13">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="5">
         <v>50</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="6">
         <f t="shared" ref="D10:D13" si="0">B10*C10</f>
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="13">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
         <v>6</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="5">
         <v>25</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="13">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
         <v>4</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="5">
         <v>40</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="13">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
         <v>12</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="5">
         <v>25</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="17">
-        <f>SUM(B9:B13)</f>
-        <v>41</v>
-      </c>
-      <c r="C14" s="14">
-        <f>SUM(C9:C13)</f>
-        <v>215</v>
-      </c>
-      <c r="D14" s="15">
+      <c r="A14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6">
         <f>SUM(D9:D13)</f>
         <v>2010</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="13">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4">
         <v>6</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="5">
         <v>35.99</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="9">
         <f>B17*C17</f>
         <v>215.94</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="13">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="5">
         <v>105</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="9">
         <f t="shared" ref="D18:D20" si="1">B18*C18</f>
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="13">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4">
         <v>4</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="5">
         <v>69.95</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="9">
         <f t="shared" si="1"/>
         <v>279.8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="13">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4">
         <v>12</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="5">
         <v>9.99</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="9">
         <f t="shared" si="1"/>
         <v>119.88</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="13">
-        <f>SUM(B17:B20)</f>
-        <v>23</v>
-      </c>
-      <c r="C21" s="19">
-        <f>SUM(C17:C20)</f>
-        <v>220.93</v>
-      </c>
-      <c r="D21" s="18">
+      <c r="A21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9">
         <f>SUM(D17:D20)</f>
         <v>720.62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="21">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="12">
         <f>SUM(D14+D21)</f>
         <v>2730.62</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="15">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="6">
         <f>MIN(D9:D13)</f>
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="15">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="6">
         <f>MAX(D9:D13)</f>
         <v>1350</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="18">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="9">
         <f>MIN(D17:D20)</f>
         <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="18">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="9">
         <f>MAX(D17:D20)</f>
         <v>279.8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4277,8 +4367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05D0ADB-FC3F-44BD-8EF2-BA0F0D6AED9D}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4292,335 +4382,340 @@
     <col min="7" max="7" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+    <row r="1" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" spans="1:7" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:7" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="23" t="s">
+      <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="37"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="E4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="29" t="s">
+      <c r="G4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="13">
         <v>85000</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="13">
         <v>400400</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="21">
         <f>0.02*D5</f>
         <v>8008</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="21">
         <f>C5+E5</f>
         <v>93008</v>
       </c>
-      <c r="G5" s="41" t="str">
+      <c r="G5" s="23" t="str">
         <f>IF(F5&gt;F14,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="13">
         <v>75000</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="13">
         <v>240000</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="21">
         <f t="shared" ref="E6:E10" si="0">0.02*D6</f>
         <v>4800</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="21">
         <f t="shared" ref="F6:F11" si="1">C6+E6</f>
         <v>79800</v>
       </c>
-      <c r="G6" s="41" t="str">
+      <c r="G6" s="23" t="str">
         <f>IF(F6&gt;F14,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="27">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="13">
         <v>55000</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="13">
         <v>250000</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="21">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="21">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
-      <c r="G7" s="41" t="str">
+      <c r="G7" s="23" t="str">
         <f>IF(F7&gt;F14,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="13">
         <v>65000</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="13">
         <v>330800</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="21">
         <f t="shared" si="0"/>
         <v>6616</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="21">
         <f t="shared" si="1"/>
         <v>71616</v>
       </c>
-      <c r="G8" s="41" t="str">
+      <c r="G8" s="23" t="str">
         <f>IF(F8&gt;F14,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="27">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="13">
         <v>39000</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="13">
         <v>345000</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="21">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="21">
         <f t="shared" si="1"/>
         <v>45900</v>
       </c>
-      <c r="G9" s="41" t="str">
+      <c r="G9" s="23" t="str">
         <f>IF(F9&gt;F14,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="27">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="13">
         <v>59500</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="13">
         <v>274500</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="21">
         <f t="shared" si="0"/>
         <v>5490</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="21">
         <f t="shared" si="1"/>
         <v>64990</v>
       </c>
-      <c r="G10" s="41" t="str">
+      <c r="G10" s="23" t="str">
         <f>IF(F10&gt;F14,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="27">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="13">
         <v>69000</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="13">
         <v>400000</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="21">
         <f>0.02*D11</f>
         <v>8000</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="21">
         <f t="shared" si="1"/>
         <v>77000</v>
       </c>
-      <c r="G11" s="41" t="str">
+      <c r="G11" s="23" t="str">
         <f>IF(F11&gt;F14,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="39">
+      <c r="A12" s="17"/>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="21">
         <f>MIN(C5:C11)</f>
         <v>39000</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="21">
         <f>MIN(D5:D11)</f>
         <v>240000</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="21">
         <f>MIN(E5:E11)</f>
         <v>4800</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="21">
         <f>MIN(F5:F11)</f>
         <v>45900</v>
       </c>
-      <c r="G12" s="32"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="39">
+      <c r="A13" s="17"/>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="21">
         <f>MAX(C5:C11)</f>
         <v>85000</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="21">
         <f>MAX(D5:D11)</f>
         <v>400400</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="21">
         <f>MAX(E5:E11)</f>
         <v>8008</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="21">
         <f>MAX(F5:F11)</f>
         <v>93008</v>
       </c>
-      <c r="G13" s="32"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="39">
+      <c r="A14" s="17"/>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="21">
         <f>AVERAGE(C5:C11)</f>
         <v>63928.571428571428</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="21">
         <f>AVERAGE(D5:D11)</f>
         <v>320100</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="21">
         <f>AVERAGE(E5:E11)</f>
         <v>6402</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="21">
         <f>AVERAGE(F5:F11)</f>
         <v>70330.571428571435</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="40">
+      <c r="A15" s="28"/>
+      <c r="B15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="22">
         <f>SUM(C5:C11)</f>
         <v>447500</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="22">
         <f>SUM(D5:D11)</f>
         <v>2240700</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="22">
         <f>SUM(E5:E11)</f>
         <v>44814</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="22">
         <f>SUM(F5:F11)</f>
         <v>492314</v>
       </c>
-      <c r="G15" s="38"/>
+      <c r="G15" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
@@ -4632,10 +4727,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A59426-B014-41D2-AC42-0603BF5D9FAB}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4648,564 +4743,566 @@
     <col min="8" max="8" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="52.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" ht="52.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+    </row>
+    <row r="3" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="G3" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="47"/>
-    </row>
-    <row r="3" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="H3" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="44" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="B4" s="4">
         <v>25</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="58">
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="27">
         <f>E4*D21</f>
         <v>1421</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="1">
         <v>49</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="26">
         <v>40</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="26">
         <f>IF(E4&gt;F4,E4-F4,0)</f>
         <v>9</v>
       </c>
-      <c r="H4" s="58">
+      <c r="H4" s="27">
         <f>IF(G4&gt;0, D4+((D21*G4)*1.5),D4)</f>
         <v>1812.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="13">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="4">
         <v>32</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="58">
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="27">
         <f>E5*D21</f>
         <v>1508</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="1">
         <v>52</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="26">
         <v>40</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="26">
         <f t="shared" ref="G5:G18" si="0">IF(E5&gt;F5,E5-F5,0)</f>
         <v>12</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="27">
         <f>IF(G5&gt;0, D5+((D21*G5)*1.5),D5)</f>
         <v>2030</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="13">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="4">
         <v>23</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="58">
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="27">
         <f>E6*D22</f>
         <v>579.25</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="1">
         <v>35</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="26">
         <v>40</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="58">
+      <c r="H6" s="27">
         <f>IF(G6&gt;0,D6+((G6*D22)*1.5),D6)</f>
         <v>579.25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="13">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4">
         <v>22</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="58">
+      <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="27">
         <f>E7*D22</f>
         <v>794.40000000000009</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="1">
         <v>48</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="26">
         <v>40</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="26">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="27">
         <f>IF(G7&gt;0,D7+((G7*D22)*1.5),D7)</f>
         <v>993.00000000000011</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="13">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="4">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="58">
+      <c r="C8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="27">
         <f>E8*D22</f>
         <v>331</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="1">
         <v>20</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="26">
         <v>40</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="58">
+      <c r="H8" s="27">
         <f>IF(G8&gt;0,D8+((G8*D22)*1.5),D8)</f>
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="13">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4">
         <v>19</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="58">
+      <c r="C9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="27">
         <f>E9*D22</f>
         <v>496.5</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="1">
         <v>30</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="26">
         <v>40</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="27">
         <f>IF(G9&gt;0,D9+((G9*D22)*1.5),D9)</f>
         <v>496.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="13">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="4">
         <v>24</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="58">
+      <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="27">
         <f>E10*D22</f>
         <v>579.25</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="1">
         <v>35</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="26">
         <v>40</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="27">
         <f>IF(G10&gt;0,D10+((G10*D22)*1.5),D10)</f>
         <v>579.25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="13">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="4">
         <v>22</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="58">
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="27">
         <f>E11*D22</f>
         <v>695.1</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="1">
         <v>42</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="26">
         <v>40</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="26">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H11" s="58">
+      <c r="H11" s="27">
         <f>IF(G11&gt;0,D11+((G11*D22)*1.5),D11)</f>
         <v>744.75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="13">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="4">
         <v>21</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="58">
+      <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="27">
         <f>E12*D22</f>
         <v>728.2</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="26">
         <v>40</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="26">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H12" s="58">
+      <c r="H12" s="27">
         <f>IF(G12&gt;0,D12+((G12*D22)*1.5),D12)</f>
         <v>827.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="4">
         <v>20</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="58">
+      <c r="C13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="27">
         <f>E13*D22</f>
         <v>695.1</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="1">
         <v>42</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="26">
         <v>40</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="26">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="27">
         <f>IF(G13&gt;0,D13+((G13*D22)*1.5),D13)</f>
         <v>744.75</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="13">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="4">
         <v>19</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="58">
+      <c r="C14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="27">
         <f>E14*D22</f>
         <v>612.35</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="1">
         <v>37</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="26">
         <v>40</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="58">
+      <c r="H14" s="27">
         <f>IF(G14&gt;0,D14+((G14*D22)*1.5),D14)</f>
         <v>612.35</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="13">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="4">
         <v>17</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="58">
+      <c r="C15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="27">
         <f>E15*D23</f>
         <v>546</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="1">
         <v>35</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="26">
         <v>40</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15" s="27">
         <f>IF(G15&gt;0,D15+G15*D23*1.5,D15)</f>
         <v>546</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="13">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="4">
         <v>17</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="58">
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="27">
         <f>E16*D23</f>
         <v>390</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="1">
         <v>25</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="26">
         <v>40</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="58">
+      <c r="H16" s="27">
         <f>IF(G16&gt;0,D16+G16*D23*1.5,D16)</f>
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="13">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="4">
         <v>17</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="58">
+      <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="27">
         <f>E17*D23</f>
         <v>530.4</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="1">
         <v>34</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="26">
         <v>40</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="58">
+      <c r="H17" s="27">
         <f>IF(G17&gt;0,D17+G17*D23*1.5,D17)</f>
         <v>530.4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="13">
-        <v>17</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="58">
+      <c r="D18" s="27">
         <f>E18*D23</f>
         <v>343.2</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="1">
         <v>22</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="26">
         <v>40</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="58">
+      <c r="H18" s="27">
         <f>IF(G18&gt;0,D18+G18*D23*1.5,D18)</f>
         <v>343.2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="58">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="27">
         <f>SUM(H4:H18)</f>
         <v>11560.45</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="47"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="57">
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="49"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="10">
         <v>29</v>
       </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="19">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="10">
         <v>16.55</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="19">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="10">
         <v>15.6</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A20:H20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
